--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Atto di pre-riconoscimento</t>
   </si>
   <si>
@@ -101,6 +113,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -438,6 +453,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -523,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -535,6 +553,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -556,285 +575,330 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -856,2165 +920,2492 @@
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
   </si>
   <si>
     <t>Atto di pre-riconoscimento</t>
@@ -541,14 +535,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.8984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
@@ -645,18 +639,18 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -673,13 +667,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -696,13 +690,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -719,13 +713,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -742,13 +736,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -765,10 +759,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -788,10 +782,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -811,10 +805,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -834,10 +828,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -857,108 +851,108 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>6</v>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>35</v>
@@ -967,21 +961,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>37</v>
@@ -990,44 +984,44 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>42</v>
@@ -1036,21 +1030,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>44</v>
@@ -1059,44 +1053,44 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>49</v>
@@ -1105,21 +1099,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>51</v>
@@ -1128,21 +1122,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>53</v>
@@ -1151,21 +1145,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>55</v>
@@ -1174,21 +1168,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>57</v>
@@ -1197,21 +1191,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>59</v>
@@ -1220,12 +1214,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>60</v>
@@ -1234,7 +1228,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>61</v>
@@ -1243,12 +1237,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>62</v>
@@ -1257,7 +1251,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>63</v>
@@ -1266,12 +1260,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>64</v>
@@ -1280,7 +1274,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>65</v>
@@ -1289,21 +1283,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>67</v>
@@ -1312,21 +1306,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>69</v>
@@ -1335,21 +1329,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>71</v>
@@ -1358,21 +1352,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>73</v>
@@ -1381,21 +1375,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>75</v>
@@ -1404,12 +1398,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>76</v>
@@ -1418,7 +1412,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>77</v>
@@ -1427,12 +1421,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>78</v>
@@ -1441,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>79</v>
@@ -1450,12 +1444,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>80</v>
@@ -1464,7 +1458,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>81</v>
@@ -1473,12 +1467,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>82</v>
@@ -1487,7 +1481,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>83</v>
@@ -1496,21 +1490,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>85</v>
@@ -1519,21 +1513,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>87</v>
@@ -1542,21 +1536,21 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>89</v>
@@ -1565,90 +1559,90 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>51</v>
@@ -1657,21 +1651,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>53</v>
@@ -1680,21 +1674,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>55</v>
@@ -1703,21 +1697,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>57</v>
@@ -1726,21 +1720,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>59</v>
@@ -1749,12 +1743,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>60</v>
@@ -1763,21 +1757,21 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>62</v>
@@ -1786,21 +1780,21 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>64</v>
@@ -1809,53 +1803,53 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>69</v>
@@ -1864,21 +1858,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>71</v>
@@ -1887,21 +1881,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>73</v>
@@ -1910,21 +1904,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>75</v>
@@ -1933,12 +1927,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>76</v>
@@ -1947,21 +1941,21 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>78</v>
@@ -1970,21 +1964,21 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>80</v>
@@ -1993,21 +1987,21 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>82</v>
@@ -2016,53 +2010,53 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>87</v>
@@ -2071,21 +2065,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>89</v>
@@ -2094,44 +2088,44 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>49</v>
@@ -2140,44 +2134,44 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>102</v>
@@ -2186,44 +2180,44 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>53</v>
@@ -2232,44 +2226,44 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>106</v>
@@ -2278,44 +2272,44 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>57</v>
@@ -2324,21 +2318,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>59</v>
@@ -2347,21 +2341,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>61</v>
@@ -2370,21 +2364,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>63</v>
@@ -2393,12 +2387,12 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>64</v>
@@ -2407,7 +2401,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>65</v>
@@ -2416,15 +2410,15 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2433,18 +2427,18 @@
         <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>111</v>
@@ -2453,7 +2447,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>112</v>
@@ -2462,12 +2456,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>113</v>
@@ -2476,7 +2470,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>114</v>
@@ -2485,67 +2479,67 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>123</v>
@@ -2554,21 +2548,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>125</v>
@@ -2577,21 +2571,21 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>127</v>
@@ -2600,21 +2594,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>129</v>
@@ -2623,21 +2617,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>131</v>
@@ -2646,127 +2640,127 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>140</v>
@@ -2775,76 +2769,76 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>51</v>
@@ -2853,21 +2847,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>53</v>
@@ -2876,21 +2870,21 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>55</v>
@@ -2899,21 +2893,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>57</v>
@@ -2922,21 +2916,21 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>59</v>
@@ -2945,12 +2939,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>60</v>
@@ -2959,21 +2953,21 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>62</v>
@@ -2982,21 +2976,21 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>64</v>
@@ -3005,53 +2999,53 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>69</v>
@@ -3060,21 +3054,21 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>71</v>
@@ -3083,21 +3077,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>73</v>
@@ -3106,21 +3100,21 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>75</v>
@@ -3129,12 +3123,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>76</v>
@@ -3143,21 +3137,21 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>78</v>
@@ -3166,21 +3160,21 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>80</v>
@@ -3189,21 +3183,21 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>82</v>
@@ -3212,53 +3206,53 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>87</v>
@@ -3267,21 +3261,21 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>89</v>
@@ -3290,90 +3284,90 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>154</v>
@@ -3382,30 +3376,7 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,67 +32,70 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Atto di pre-riconoscimento</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>41-bis</t>
+  </si>
+  <si>
+    <t>43.1</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Atto di pre-riconoscimento</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>41-bis</t>
-  </si>
-  <si>
-    <t>43.1</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -892,2491 +895,2491 @@
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
@@ -47,13 +47,13 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Atto di pre-riconoscimento</t>
@@ -452,7 +452,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -550,7 +550,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -215,6 +215,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -425,22 +431,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -538,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1297,7 +1303,7 @@
         <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>47</v>
@@ -1389,7 +1395,7 @@
         <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>47</v>
@@ -1504,7 +1510,7 @@
         <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>47</v>
@@ -1576,10 +1582,10 @@
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1590,22 +1596,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>32</v>
@@ -1613,22 +1619,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>32</v>
@@ -1636,19 +1642,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1659,19 +1665,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1682,19 +1688,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1705,19 +1711,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1728,19 +1734,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1751,22 +1757,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>32</v>
@@ -1774,22 +1780,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>32</v>
@@ -1797,22 +1803,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>32</v>
@@ -1820,22 +1826,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>32</v>
@@ -1843,22 +1849,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>32</v>
@@ -1866,19 +1872,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1895,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1918,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1935,22 +1941,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>32</v>
@@ -1958,19 +1964,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1987,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>18</v>
@@ -2004,22 +2010,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>32</v>
@@ -2027,22 +2033,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>32</v>
@@ -2050,22 +2056,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>32</v>
@@ -2073,19 +2079,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2102,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2125,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2142,10 +2148,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -2154,7 +2160,7 @@
         <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2171,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2194,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2217,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2234,10 +2240,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
@@ -2246,7 +2252,7 @@
         <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2257,10 +2263,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
@@ -2269,7 +2275,7 @@
         <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2286,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2303,7 +2309,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>108</v>
@@ -2312,10 +2318,10 @@
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2332,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2355,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2378,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2401,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2418,10 +2424,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2430,7 +2436,7 @@
         <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2441,10 +2447,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2453,7 +2459,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2470,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2493,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2516,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2539,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2562,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2585,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2608,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2631,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2654,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2677,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2700,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2717,19 +2723,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2740,22 +2746,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>32</v>
@@ -2763,19 +2769,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>20</v>
@@ -2786,599 +2792,668 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E123" s="2" t="s">
+      <c r="C125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -458,7 +458,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -556,7 +559,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3347,7 +3350,7 @@
         <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
@@ -3367,10 +3370,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3379,7 +3382,7 @@
         <v>94</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3390,10 +3393,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3402,7 +3405,7 @@
         <v>94</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>22</v>
@@ -3413,10 +3416,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
@@ -3425,7 +3428,7 @@
         <v>30</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3436,10 +3439,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
@@ -3448,7 +3451,7 @@
         <v>102</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -459,9 +459,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3350,7 +3347,7 @@
         <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
@@ -3370,10 +3367,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3382,7 +3379,7 @@
         <v>94</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3393,10 +3390,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3405,7 +3402,7 @@
         <v>94</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>22</v>
@@ -3416,10 +3413,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
@@ -3428,7 +3425,7 @@
         <v>30</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3439,10 +3436,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
@@ -3451,7 +3448,7 @@
         <v>102</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3347,7 +3350,7 @@
         <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
@@ -3367,10 +3370,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3379,7 +3382,7 @@
         <v>94</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3390,10 +3393,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3402,7 +3405,7 @@
         <v>94</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>22</v>
@@ -3413,10 +3416,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
@@ -3425,7 +3428,7 @@
         <v>30</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3436,10 +3439,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
@@ -3448,7 +3451,7 @@
         <v>102</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="169">
   <si>
     <t>Sezione</t>
   </si>
@@ -309,6 +309,36 @@
   </si>
   <si>
     <t>43.1,31</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -547,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -557,7 +587,7 @@
     <col min="2" max="2" width="41.8984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2151,19 +2181,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2174,22 +2204,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>32</v>
@@ -2197,19 +2227,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2220,22 +2250,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>32</v>
@@ -2243,22 +2273,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>32</v>
@@ -2266,19 +2296,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2289,19 +2319,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2312,19 +2342,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2335,19 +2365,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2358,19 +2388,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2381,19 +2411,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2434,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2457,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2480,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2503,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2526,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2519,19 +2549,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2542,19 +2572,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2595,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2618,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2641,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2634,19 +2664,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2657,19 +2687,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2680,19 +2710,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2703,19 +2733,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2726,19 +2756,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2749,19 +2779,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2772,22 +2802,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>32</v>
@@ -2795,22 +2825,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>32</v>
@@ -2818,19 +2848,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2841,622 +2871,829 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E126" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
@@ -2624,7 +2624,7 @@
         <v>122</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>112</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="171">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,6 +167,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -221,13 +227,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -577,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1152,7 +1158,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>47</v>
@@ -1244,7 +1250,7 @@
         <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>47</v>
@@ -1359,7 +1365,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>47</v>
@@ -1382,7 +1388,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>47</v>
@@ -1451,7 +1457,7 @@
         <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>47</v>
@@ -1566,7 +1572,7 @@
         <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>47</v>
@@ -1638,10 +1644,10 @@
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1652,22 +1658,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>32</v>
@@ -1675,22 +1681,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>32</v>
@@ -1698,19 +1704,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1727,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1750,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1773,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1796,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1813,22 +1819,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>32</v>
@@ -1836,19 +1842,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1865,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>18</v>
@@ -1882,22 +1888,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>32</v>
@@ -1905,22 +1911,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>32</v>
@@ -1928,22 +1934,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>32</v>
@@ -1951,19 +1957,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1974,19 +1980,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2003,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2020,22 +2026,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>32</v>
@@ -2043,19 +2049,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2072,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>18</v>
@@ -2089,22 +2095,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>32</v>
@@ -2112,22 +2118,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>32</v>
@@ -2135,22 +2141,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>32</v>
@@ -2158,19 +2164,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2181,19 +2187,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2204,22 +2210,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>32</v>
@@ -2227,19 +2233,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2256,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>18</v>
@@ -2273,22 +2279,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>32</v>
@@ -2296,22 +2302,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>32</v>
@@ -2319,22 +2325,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>32</v>
@@ -2342,10 +2348,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2354,7 +2360,7 @@
         <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2365,19 +2371,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2394,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2411,19 +2417,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2440,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2457,10 +2463,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
@@ -2469,7 +2475,7 @@
         <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2480,7 +2486,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>55</v>
@@ -2489,7 +2495,7 @@
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>56</v>
@@ -2503,19 +2509,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2532,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2555,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2578,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2595,19 +2601,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2618,19 +2624,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2641,19 +2647,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2664,19 +2670,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2687,19 +2693,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2710,19 +2716,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2733,10 +2739,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2745,7 +2751,7 @@
         <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2756,10 +2762,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2768,7 +2774,7 @@
         <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2779,19 +2785,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2802,19 +2808,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2825,19 +2831,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2848,19 +2854,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2871,19 +2877,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2894,19 +2900,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2917,19 +2923,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2940,19 +2946,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2963,19 +2969,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2986,19 +2992,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3009,22 +3015,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>32</v>
@@ -3032,22 +3038,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>32</v>
@@ -3055,19 +3061,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3078,622 +3084,714 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G131" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B135" s="2" t="s">
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E135" s="2" t="s">
+      <c r="C138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -583,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1434,7 +1440,7 @@
         <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>47</v>
@@ -1457,7 +1463,7 @@
         <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>47</v>
@@ -1595,7 +1601,7 @@
         <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>47</v>
@@ -1667,10 +1673,10 @@
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1681,22 +1687,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>32</v>
@@ -1704,22 +1710,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>32</v>
@@ -1727,19 +1733,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1756,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1779,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1802,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1825,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1842,19 +1848,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1865,22 +1871,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>32</v>
@@ -1888,22 +1894,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>32</v>
@@ -1911,22 +1917,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>32</v>
@@ -1934,19 +1940,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>18</v>
@@ -1957,22 +1963,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>32</v>
@@ -1980,19 +1986,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2003,19 +2009,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2026,22 +2032,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>32</v>
@@ -2049,19 +2055,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2078,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>18</v>
@@ -2095,19 +2101,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2124,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>18</v>
@@ -2141,22 +2147,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>32</v>
@@ -2164,22 +2170,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>32</v>
@@ -2187,22 +2193,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>32</v>
@@ -2210,19 +2216,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2239,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2256,22 +2262,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>32</v>
@@ -2279,19 +2285,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2308,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>18</v>
@@ -2325,22 +2331,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>32</v>
@@ -2348,22 +2354,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>32</v>
@@ -2371,22 +2377,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>32</v>
@@ -2394,10 +2400,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2406,7 +2412,7 @@
         <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2423,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2446,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2463,19 +2469,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2486,19 +2492,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2509,10 +2515,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
@@ -2521,7 +2527,7 @@
         <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2532,10 +2538,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
@@ -2544,7 +2550,7 @@
         <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2561,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2578,7 +2584,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>122</v>
@@ -2587,10 +2593,10 @@
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2607,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2630,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2653,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2676,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2699,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2722,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2745,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2762,19 +2768,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2785,19 +2791,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2808,10 +2814,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2820,7 +2826,7 @@
         <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2831,10 +2837,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2843,7 +2849,7 @@
         <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2854,19 +2860,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2877,19 +2883,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2900,19 +2906,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2923,19 +2929,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2952,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2969,19 +2975,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2992,19 +2998,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3015,19 +3021,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3038,19 +3044,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3061,19 +3067,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3084,22 +3090,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>32</v>
@@ -3107,22 +3113,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>32</v>
@@ -3130,22 +3136,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>32</v>
@@ -3153,645 +3159,714 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G135" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E139" s="2" t="s">
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -589,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1624,7 +1630,7 @@
         <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>47</v>
@@ -1696,10 +1702,10 @@
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1710,22 +1716,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>32</v>
@@ -1733,22 +1739,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>32</v>
@@ -1756,19 +1762,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1779,19 +1785,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1802,19 +1808,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1825,19 +1831,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1848,19 +1854,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1871,19 +1877,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1894,22 +1900,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>32</v>
@@ -1917,22 +1923,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>32</v>
@@ -1940,22 +1946,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>32</v>
@@ -1963,19 +1969,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>18</v>
@@ -1986,22 +1992,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>32</v>
@@ -2009,19 +2015,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2032,22 +2038,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>32</v>
@@ -2055,22 +2061,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>32</v>
@@ -2078,19 +2084,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>18</v>
@@ -2101,19 +2107,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2124,19 +2130,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>18</v>
@@ -2147,19 +2153,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2170,19 +2176,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>18</v>
@@ -2193,22 +2199,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>32</v>
@@ -2216,22 +2222,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>32</v>
@@ -2239,22 +2245,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>32</v>
@@ -2262,19 +2268,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2291,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2308,22 +2314,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>32</v>
@@ -2331,19 +2337,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2360,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>18</v>
@@ -2377,22 +2383,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>32</v>
@@ -2400,22 +2406,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>32</v>
@@ -2423,22 +2429,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>32</v>
@@ -2446,10 +2452,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2458,7 +2464,7 @@
         <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2475,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2498,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2521,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2538,19 +2544,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2561,10 +2567,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
@@ -2573,7 +2579,7 @@
         <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2584,10 +2590,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
@@ -2596,7 +2602,7 @@
         <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2607,19 +2613,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2630,7 +2636,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>124</v>
@@ -2639,10 +2645,10 @@
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2653,19 +2659,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2676,19 +2682,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2699,19 +2705,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2722,19 +2728,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2751,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2774,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2797,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2820,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2837,19 +2843,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2860,10 +2866,10 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2872,7 +2878,7 @@
         <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2883,10 +2889,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2895,7 +2901,7 @@
         <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2906,19 +2912,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2929,19 +2935,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2952,19 +2958,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2975,19 +2981,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2998,19 +3004,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3021,19 +3027,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3044,19 +3050,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3067,19 +3073,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3090,19 +3096,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3113,19 +3119,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3136,22 +3142,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>32</v>
@@ -3159,22 +3165,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>32</v>
@@ -3182,22 +3188,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>32</v>
@@ -3205,668 +3211,737 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>162</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>162</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G138" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E142" s="2" t="s">
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -56,6 +56,12 @@
     <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
+  </si>
+  <si>
     <t>Atto di pre-riconoscimento</t>
   </si>
   <si>
@@ -357,6 +363,15 @@
   </si>
   <si>
     <t>flagTrasmissioneResidenzaEstera</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -595,14 +610,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.8984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -699,18 +714,18 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -727,13 +742,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -750,13 +765,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -773,13 +788,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -796,13 +811,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -819,10 +834,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -842,10 +857,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -865,10 +880,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -888,10 +903,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -911,10 +926,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -933,86 +948,86 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>36</v>
@@ -1021,21 +1036,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>38</v>
@@ -1044,44 +1059,44 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>43</v>
@@ -1090,21 +1105,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>45</v>
@@ -1113,44 +1128,44 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>50</v>
@@ -1159,21 +1174,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>52</v>
@@ -1182,21 +1197,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>54</v>
@@ -1205,21 +1220,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>56</v>
@@ -1228,21 +1243,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>58</v>
@@ -1251,21 +1266,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>60</v>
@@ -1274,21 +1289,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>62</v>
@@ -1297,12 +1312,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>63</v>
@@ -1311,7 +1326,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>64</v>
@@ -1320,12 +1335,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>65</v>
@@ -1334,7 +1349,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>66</v>
@@ -1343,12 +1358,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>67</v>
@@ -1357,7 +1372,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>68</v>
@@ -1366,12 +1381,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>69</v>
@@ -1380,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>70</v>
@@ -1389,12 +1404,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>71</v>
@@ -1403,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>72</v>
@@ -1412,21 +1427,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>74</v>
@@ -1435,21 +1450,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>76</v>
@@ -1458,12 +1473,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>77</v>
@@ -1472,7 +1487,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>78</v>
@@ -1481,12 +1496,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>79</v>
@@ -1495,7 +1510,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>80</v>
@@ -1504,12 +1519,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>81</v>
@@ -1518,7 +1533,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>82</v>
@@ -1527,12 +1542,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>83</v>
@@ -1541,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>84</v>
@@ -1550,12 +1565,12 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>85</v>
@@ -1564,7 +1579,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>86</v>
@@ -1573,12 +1588,12 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>87</v>
@@ -1587,7 +1602,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>88</v>
@@ -1596,12 +1611,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>89</v>
@@ -1610,7 +1625,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>90</v>
@@ -1619,12 +1634,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>91</v>
@@ -1633,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>92</v>
@@ -1642,21 +1657,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>94</v>
@@ -1665,21 +1680,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>96</v>
@@ -1688,21 +1703,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>98</v>
@@ -1711,90 +1726,90 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>52</v>
@@ -1803,21 +1818,21 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>54</v>
@@ -1826,21 +1841,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>56</v>
@@ -1849,21 +1864,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>58</v>
@@ -1872,21 +1887,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>60</v>
@@ -1895,21 +1910,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>62</v>
@@ -1918,12 +1933,12 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>63</v>
@@ -1932,21 +1947,21 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>65</v>
@@ -1955,21 +1970,21 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>67</v>
@@ -1978,21 +1993,21 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>69</v>
@@ -2001,53 +2016,53 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>74</v>
@@ -2056,35 +2071,35 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>77</v>
@@ -2093,21 +2108,21 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>79</v>
@@ -2116,21 +2131,21 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>81</v>
@@ -2139,21 +2154,21 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>83</v>
@@ -2162,21 +2177,21 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>85</v>
@@ -2185,21 +2200,21 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>87</v>
@@ -2208,21 +2223,21 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>89</v>
@@ -2231,21 +2246,21 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>91</v>
@@ -2254,53 +2269,53 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>96</v>
@@ -2309,21 +2324,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>98</v>
@@ -2332,35 +2347,35 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>107</v>
@@ -2369,21 +2384,21 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>109</v>
@@ -2392,21 +2407,21 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>111</v>
@@ -2415,21 +2430,21 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>113</v>
@@ -2438,53 +2453,53 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>50</v>
@@ -2493,38 +2508,38 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2533,389 +2548,389 @@
         <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2924,21 +2939,21 @@
         <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2947,464 +2962,464 @@
         <v>118</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>60</v>
@@ -3413,21 +3428,21 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>62</v>
@@ -3436,12 +3451,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>63</v>
@@ -3450,30 +3465,30 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>66</v>
@@ -3482,12 +3497,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>67</v>
@@ -3496,21 +3511,21 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>69</v>
@@ -3519,430 +3534,1166 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B148" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E145" s="2" t="s">
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="182">
   <si>
     <t>Sezione</t>
   </si>
@@ -504,6 +504,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -610,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1461,7 +1467,7 @@
         <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>49</v>
@@ -3991,7 +3997,7 @@
         <v>164</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>144</v>
@@ -4000,7 +4006,7 @@
         <v>165</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>34</v>
@@ -4008,605 +4014,605 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>172</v>
@@ -4615,27 +4621,27 @@
         <v>19</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>102</v>
@@ -4644,7 +4650,7 @@
         <v>175</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>34</v>
@@ -4652,22 +4658,22 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>177</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>34</v>
@@ -4675,7 +4681,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>178</v>
@@ -4684,7 +4690,7 @@
         <v>19</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>179</v>
@@ -4693,6 +4699,29 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
@@ -4319,7 +4319,7 @@
         <v>73</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>169</v>
@@ -4342,7 +4342,7 @@
         <v>75</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>169</v>
@@ -4351,7 +4351,7 @@
         <v>76</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>171</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_075.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="186">
   <si>
     <t>Sezione</t>
   </si>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -616,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1260,7 +1272,7 @@
         <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>49</v>
@@ -1283,7 +1295,7 @@
         <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>49</v>
@@ -1329,7 +1341,7 @@
         <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>49</v>
@@ -1352,7 +1364,7 @@
         <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>49</v>
@@ -1697,7 +1709,7 @@
         <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>49</v>
@@ -1720,7 +1732,7 @@
         <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>49</v>
@@ -1769,10 +1781,10 @@
         <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1783,22 +1795,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>34</v>
@@ -1806,19 +1818,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1829,22 +1841,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>34</v>
@@ -1852,19 +1864,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1875,19 +1887,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1898,19 +1910,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1921,19 +1933,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1944,22 +1956,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1967,22 +1979,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1990,19 +2002,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2013,22 +2025,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>34</v>
@@ -2036,22 +2048,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -2059,22 +2071,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>34</v>
@@ -2082,19 +2094,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2105,19 +2117,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>20</v>
@@ -2128,19 +2140,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>20</v>
@@ -2151,19 +2163,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2174,22 +2186,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>34</v>
@@ -2197,22 +2209,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>34</v>
@@ -2220,19 +2232,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>20</v>
@@ -2243,19 +2255,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2266,19 +2278,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>20</v>
@@ -2289,22 +2301,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>34</v>
@@ -2312,22 +2324,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>34</v>
@@ -2335,19 +2347,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2358,22 +2370,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2381,22 +2393,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2404,22 +2416,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2427,19 +2439,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2450,22 +2462,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2473,22 +2485,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>34</v>
@@ -2496,870 +2508,870 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="E115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3370,19 +3382,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3393,19 +3405,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3416,19 +3428,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3439,19 +3451,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3462,19 +3474,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3485,19 +3497,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3508,19 +3520,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3531,19 +3543,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3554,19 +3566,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3577,19 +3589,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3600,19 +3612,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3623,19 +3635,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3646,19 +3658,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3669,19 +3681,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3692,16 +3704,16 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>138</v>
@@ -3715,19 +3727,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3738,19 +3750,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3761,19 +3773,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3784,19 +3796,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3807,19 +3819,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="C139" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3830,19 +3842,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3853,19 +3865,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3876,19 +3888,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3899,19 +3911,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3922,19 +3934,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3945,22 +3957,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>34</v>
@@ -3968,22 +3980,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>34</v>
@@ -3991,22 +4003,22 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>34</v>
@@ -4014,19 +4026,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4037,691 +4049,875 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C153" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E175" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E176" s="2" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E177" s="2" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="E178" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E178" s="2" t="s">
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
+      <c r="F184" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>34</v>
       </c>
     </row>
